--- a/Check List Собаседник.xlsx
+++ b/Check List Собаседник.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="100">
   <si>
     <t>Project</t>
   </si>
@@ -174,10 +174,149 @@
     <t>Футер</t>
   </si>
   <si>
+    <t>&lt;= Алекс, возьми на себя Футер сайта, я возьму Омега форму со страницы "О нас" на себя, в футере есть несколько форм, их нужно покрыть тестами, все как обычно</t>
+  </si>
+  <si>
+    <t>Перед commit и push выполнить команду -&gt;
+git pull origin master --rebase</t>
+  </si>
+  <si>
     <t>Главная страница</t>
   </si>
   <si>
+    <t>Кнопка "Подробнее о питомнике"</t>
+  </si>
+  <si>
+    <t>Кнопка</t>
+  </si>
+  <si>
+    <t>Проверка перехода, при нажатии на кнопку</t>
+  </si>
+  <si>
+    <t>Блок 1 (Лайфхак)</t>
+  </si>
+  <si>
+    <t>Фотокарточка</t>
+  </si>
+  <si>
+    <t>Проверка кликабельности фотокарточки</t>
+  </si>
+  <si>
+    <t>Переход на страницу блога</t>
+  </si>
+  <si>
+    <t>Заголовок</t>
+  </si>
+  <si>
+    <t>Проверка кликабельности заголовка</t>
+  </si>
+  <si>
+    <t>Блок 2 (Дог Блог)</t>
+  </si>
+  <si>
+    <t>Ссылка "Дог Блог"</t>
+  </si>
+  <si>
+    <t>Проверка работы ссылки</t>
+  </si>
+  <si>
+    <t>Переход на соответствующую страницу блога</t>
+  </si>
+  <si>
+    <t>Блок 2 (В конце релиза)</t>
+  </si>
+  <si>
+    <t>Ссылка "В конце релиза"</t>
+  </si>
+  <si>
+    <t>Блок 3 (Дог Блог)</t>
+  </si>
+  <si>
+    <t>Блок 3 .(Дог Блог)</t>
+  </si>
+  <si>
+    <t>Блок 3 (В конце релиза)</t>
+  </si>
+  <si>
+    <t>Карусель "Наш главный производитель"</t>
+  </si>
+  <si>
+    <t>Кнопка "Вправо"</t>
+  </si>
+  <si>
+    <t>Проверка работы кнопки</t>
+  </si>
+  <si>
+    <t>Карусель листается вправо</t>
+  </si>
+  <si>
+    <t>Кнопка "Влево"</t>
+  </si>
+  <si>
+    <t>Карусель листается влево</t>
+  </si>
+  <si>
+    <t>Drag &amp; Drop</t>
+  </si>
+  <si>
+    <t>Проверка работы перелистывания с помощью курсора</t>
+  </si>
+  <si>
+    <t>Карусель листается в зависимости от перемещения</t>
+  </si>
+  <si>
+    <t>Отображение всех изображений</t>
+  </si>
+  <si>
+    <t>Проверка загрузки и отображения всех изображений в карусели</t>
+  </si>
+  <si>
+    <t>Все изображения загружены и корректно отображаются</t>
+  </si>
+  <si>
+    <t>Блок "Блог Джесси, инженера по тестированию лапками"</t>
+  </si>
+  <si>
+    <t>Отсутствие кликабельности блогов</t>
+  </si>
+  <si>
+    <t>Проверка, что блоги не являются ссылками</t>
+  </si>
+  <si>
+    <t>Блоги не кликабельны</t>
+  </si>
+  <si>
+    <t>Блок блогов</t>
+  </si>
+  <si>
+    <t>Корректность названий</t>
+  </si>
+  <si>
+    <t>Проверка заголовков блогов на отсутствие ошибок</t>
+  </si>
+  <si>
+    <t>Все названия написаны без ошибок</t>
+  </si>
+  <si>
+    <t>"See All News"</t>
+  </si>
+  <si>
+    <t>Блок "Помощь начинающим тестироващика"</t>
+  </si>
+  <si>
+    <t>Текст блока</t>
+  </si>
+  <si>
+    <t>Проверка читаемости текста</t>
+  </si>
+  <si>
+    <t>Текст не сливается с фоном</t>
+  </si>
+  <si>
     <t>Страница "О нас"</t>
+  </si>
+  <si>
+    <t>Страница "Блог Джесси"</t>
   </si>
 </sst>
 </file>
@@ -267,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -299,6 +438,9 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,9 +659,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="16.25"/>
-    <col customWidth="1" min="4" max="4" width="15.0"/>
+    <col customWidth="1" min="2" max="2" width="18.5"/>
+    <col customWidth="1" min="3" max="3" width="20.5"/>
+    <col customWidth="1" min="4" max="4" width="21.38"/>
     <col customWidth="1" min="5" max="5" width="17.38"/>
-    <col customWidth="1" min="6" max="6" width="22.75"/>
+    <col customWidth="1" min="6" max="6" width="26.5"/>
     <col customWidth="1" min="7" max="8" width="17.38"/>
   </cols>
   <sheetData>
@@ -1036,8 +1180,22 @@
       <c r="H20" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="I20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" ht="42.75" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1052,7 +1210,18 @@
       <c r="H21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="11"/>
@@ -1160,277 +1329,802 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="56.25" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="E28" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="G28" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" ht="68.25" customHeight="1">
+      <c r="A29" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="E29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="G29" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" ht="35.25" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" ht="69.75" customHeight="1">
+      <c r="A30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="E30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="G30" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" ht="57.0" customHeight="1">
+      <c r="A31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="E31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="G31" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" ht="58.5" customHeight="1">
+      <c r="A32" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="E32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="11"/>
+      <c r="F32" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="G32" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" ht="56.25" customHeight="1">
+      <c r="A33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="E33" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="G33" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" ht="56.25" customHeight="1">
+      <c r="A34" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="E34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="G34" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" ht="56.25" customHeight="1">
+      <c r="A35" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" ht="56.25" customHeight="1">
+      <c r="A36" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" ht="56.25" customHeight="1">
+      <c r="A37" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" ht="56.25" customHeight="1">
+      <c r="A38" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" ht="56.25" customHeight="1">
+      <c r="A39" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" ht="56.25" customHeight="1">
+      <c r="A40" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" ht="56.25" customHeight="1">
+      <c r="A41" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" ht="56.25" customHeight="1">
+      <c r="A42" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" ht="56.25" customHeight="1">
+      <c r="A43" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" ht="56.25" customHeight="1">
+      <c r="A44" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" ht="56.25" customHeight="1">
+      <c r="A45" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B46" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G46" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H46" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" ht="30.0" customHeight="1">
-      <c r="A36" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" ht="29.25" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" customHeight="1"/>
+    <row r="47" ht="30.0" customHeight="1">
+      <c r="A47" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" ht="29.25" customHeight="1">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="48.0" customHeight="1">
+      <c r="A55" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" ht="15.0" customHeight="1">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
@@ -1441,10 +2135,10 @@
     <mergeCell ref="I21:K21"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:H18 G20:H26 G28:H34 G36:H43">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:H18 G20:H26 G28:H45 G47:H53 G55:H64">
       <formula1>"Pass - ✅,Fail - ❌,Not Run - ⬜,Unknown"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E7:E18 E20:E26 E28:E34 E36:E43">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E7:E18 E20:E26 E28:E45 E47:E53 E55:E64">
       <formula1>"Positive - ✅,Neagtive- ❌"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Check List Собаседник.xlsx
+++ b/Check List Собаседник.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="98">
   <si>
     <t>Project</t>
   </si>
@@ -172,13 +172,6 @@
   </si>
   <si>
     <t>Футер</t>
-  </si>
-  <si>
-    <t>&lt;= Алекс, возьми на себя Футер сайта, я возьму Омега форму со страницы "О нас" на себя, в футере есть несколько форм, их нужно покрыть тестами, все как обычно</t>
-  </si>
-  <si>
-    <t>Перед commit и push выполнить команду -&gt;
-git pull origin master --rebase</t>
   </si>
   <si>
     <t>Главная страница</t>
@@ -665,6 +658,7 @@
     <col customWidth="1" min="5" max="5" width="17.38"/>
     <col customWidth="1" min="6" max="6" width="26.5"/>
     <col customWidth="1" min="7" max="8" width="17.38"/>
+    <col customWidth="1" min="11" max="11" width="28.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1180,9 +1174,7 @@
       <c r="H20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="I20" s="12"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -1210,9 +1202,7 @@
       <c r="H21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="I21" s="12"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -1331,16 +1321,16 @@
     </row>
     <row r="28" ht="56.25" customHeight="1">
       <c r="A28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>21</v>
@@ -1357,22 +1347,22 @@
     </row>
     <row r="29" ht="68.25" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="E29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>23</v>
@@ -1383,22 +1373,22 @@
     </row>
     <row r="30" ht="69.75" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>23</v>
@@ -1409,22 +1399,22 @@
     </row>
     <row r="31" ht="57.0" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>23</v>
@@ -1435,22 +1425,22 @@
     </row>
     <row r="32" ht="58.5" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="E32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>23</v>
@@ -1461,22 +1451,22 @@
     </row>
     <row r="33" ht="56.25" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>23</v>
@@ -1487,22 +1477,22 @@
     </row>
     <row r="34" ht="56.25" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>23</v>
@@ -1513,22 +1503,22 @@
     </row>
     <row r="35" ht="56.25" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>23</v>
@@ -1539,22 +1529,22 @@
     </row>
     <row r="36" ht="56.25" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>23</v>
@@ -1565,22 +1555,22 @@
     </row>
     <row r="37" ht="56.25" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="E37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>23</v>
@@ -1591,22 +1581,22 @@
     </row>
     <row r="38" ht="56.25" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="E38" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>23</v>
@@ -1617,22 +1607,22 @@
     </row>
     <row r="39" ht="56.25" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C39" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>23</v>
@@ -1643,22 +1633,22 @@
     </row>
     <row r="40" ht="56.25" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>23</v>
@@ -1669,16 +1659,16 @@
     </row>
     <row r="41" ht="56.25" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>21</v>
@@ -1695,22 +1685,22 @@
     </row>
     <row r="42" ht="56.25" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="E42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>23</v>
@@ -1721,22 +1711,22 @@
     </row>
     <row r="43" ht="56.25" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="E43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>23</v>
@@ -1747,16 +1737,16 @@
     </row>
     <row r="44" ht="56.25" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>21</v>
@@ -1773,22 +1763,22 @@
     </row>
     <row r="45" ht="56.25" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="E45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>23</v>
@@ -1825,7 +1815,7 @@
     </row>
     <row r="47" ht="30.0" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1965,7 +1955,7 @@
     </row>
     <row r="55" ht="48.0" customHeight="1">
       <c r="A55" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>

--- a/Check List Собаседник.xlsx
+++ b/Check List Собаседник.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="121">
   <si>
     <t>Project</t>
   </si>
@@ -174,6 +174,10 @@
     <t>Футер</t>
   </si>
   <si>
+    <t>Перед работой с удаленным репозиторием выполнить команду -&gt;
+git pull origin master --rebase</t>
+  </si>
+  <si>
     <t>Главная страница</t>
   </si>
   <si>
@@ -303,10 +307,76 @@
     <t>Проверка читаемости текста</t>
   </si>
   <si>
-    <t>Текст не сливается с фоном</t>
+    <t>Текст четко отображается, хорошо читаем и не сливается с фоном</t>
   </si>
   <si>
     <t>Страница "О нас"</t>
+  </si>
+  <si>
+    <t>Название вкладки</t>
+  </si>
+  <si>
+    <t>Вкладка браузера</t>
+  </si>
+  <si>
+    <t>Проверка соответствия содержанию страницы</t>
+  </si>
+  <si>
+    <t>Название вкладки точно отражает содержимое страницы</t>
+  </si>
+  <si>
+    <t>"Форма бронирования питомца"</t>
+  </si>
+  <si>
+    <t>Кнопка "Подтвердить отправку"</t>
+  </si>
+  <si>
+    <t>Проверка отображения названия кнопки</t>
+  </si>
+  <si>
+    <t>Текст кнопки отображается в любом состоянии</t>
+  </si>
+  <si>
+    <t>Текст полей ввода</t>
+  </si>
+  <si>
+    <t>Проверка читаемости и контрастности текста в полях ввода</t>
+  </si>
+  <si>
+    <t>Шрифт и жирность названий разделов</t>
+  </si>
+  <si>
+    <t>Проверка единообразия шрифтов названий разделов</t>
+  </si>
+  <si>
+    <t>Названия разделов имеют одинаковый размер шрифта и одинаковую жирность.</t>
+  </si>
+  <si>
+    <t>Единобразие названий разделов</t>
+  </si>
+  <si>
+    <t>Проверить, что текст названий разделов корректен и в одном стиле (например, русские слова вместо англоязычных и т. д.)</t>
+  </si>
+  <si>
+    <t>Названия разделов корректны и написаны в одном стиле</t>
+  </si>
+  <si>
+    <t>Элементы формы</t>
+  </si>
+  <si>
+    <t>Проверить правильность отступов и выравнивания элементов формы (например, радиокнопки и чекбоксы)</t>
+  </si>
+  <si>
+    <t>Элементы формы выравнены, отступы соблюдены</t>
+  </si>
+  <si>
+    <t>Работоспособность формы</t>
+  </si>
+  <si>
+    <t>Проверка успешной отправки формы при корректно заполненных данных</t>
+  </si>
+  <si>
+    <t>Форма отправляется, отображается сообщение об успешной отправке</t>
   </si>
   <si>
     <t>Страница "Блог Джесси"</t>
@@ -652,7 +722,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="16.25"/>
-    <col customWidth="1" min="2" max="2" width="18.5"/>
+    <col customWidth="1" min="2" max="2" width="20.75"/>
     <col customWidth="1" min="3" max="3" width="20.5"/>
     <col customWidth="1" min="4" max="4" width="21.38"/>
     <col customWidth="1" min="5" max="5" width="17.38"/>
@@ -1157,7 +1227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="29.25" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>51</v>
       </c>
@@ -1202,7 +1272,9 @@
       <c r="H21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="12"/>
+      <c r="I21" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -1321,16 +1393,16 @@
     </row>
     <row r="28" ht="56.25" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>21</v>
@@ -1347,22 +1419,22 @@
     </row>
     <row r="29" ht="68.25" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>23</v>
@@ -1373,22 +1445,22 @@
     </row>
     <row r="30" ht="69.75" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>23</v>
@@ -1399,22 +1471,22 @@
     </row>
     <row r="31" ht="57.0" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>23</v>
@@ -1425,22 +1497,22 @@
     </row>
     <row r="32" ht="58.5" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>23</v>
@@ -1451,22 +1523,22 @@
     </row>
     <row r="33" ht="56.25" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>23</v>
@@ -1477,22 +1549,22 @@
     </row>
     <row r="34" ht="56.25" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>23</v>
@@ -1503,22 +1575,22 @@
     </row>
     <row r="35" ht="56.25" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>23</v>
@@ -1529,22 +1601,22 @@
     </row>
     <row r="36" ht="56.25" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>23</v>
@@ -1555,22 +1627,22 @@
     </row>
     <row r="37" ht="56.25" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>23</v>
@@ -1581,22 +1653,22 @@
     </row>
     <row r="38" ht="56.25" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>23</v>
@@ -1607,22 +1679,22 @@
     </row>
     <row r="39" ht="56.25" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>23</v>
@@ -1633,22 +1705,22 @@
     </row>
     <row r="40" ht="56.25" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>23</v>
@@ -1659,16 +1731,16 @@
     </row>
     <row r="41" ht="56.25" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>21</v>
@@ -1685,22 +1757,22 @@
     </row>
     <row r="42" ht="56.25" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>23</v>
@@ -1711,22 +1783,22 @@
     </row>
     <row r="43" ht="56.25" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>23</v>
@@ -1737,16 +1809,16 @@
     </row>
     <row r="44" ht="56.25" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>21</v>
@@ -1763,22 +1835,22 @@
     </row>
     <row r="45" ht="56.25" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>23</v>
@@ -1813,113 +1885,181 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" ht="30.0" customHeight="1">
+    <row r="47" ht="63.75" customHeight="1">
       <c r="A47" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" ht="58.5" customHeight="1">
+      <c r="A48" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" ht="48.75" customHeight="1">
+      <c r="A49" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" ht="29.25" customHeight="1">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="11"/>
       <c r="G49" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" ht="61.5" customHeight="1">
+      <c r="A50" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="E50" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="11"/>
+      <c r="F50" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="G50" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" ht="86.25" customHeight="1">
+      <c r="A51" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="E51" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="11"/>
+      <c r="F51" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="G51" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" ht="68.25" customHeight="1">
+      <c r="A52" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="E52" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="G52" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" ht="67.5" customHeight="1">
+      <c r="A53" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="E53" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="11"/>
+      <c r="F53" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="G53" s="11" t="s">
         <v>23</v>
       </c>
@@ -1927,42 +2067,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" ht="48.0" customHeight="1">
+    <row r="54" ht="67.5" customHeight="1">
+      <c r="A54" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" ht="67.5" customHeight="1">
       <c r="A55" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="11"/>
+      <c r="B55" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11" t="s">
         <v>23</v>
@@ -1971,14 +2105,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
+    <row r="56" ht="67.5" customHeight="1">
+      <c r="A56" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11" t="s">
         <v>23</v>
@@ -1987,14 +2123,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
+    <row r="57" ht="67.5" customHeight="1">
+      <c r="A57" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11" t="s">
         <v>23</v>
@@ -2003,14 +2141,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
+    <row r="58" ht="67.5" customHeight="1">
+      <c r="A58" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11" t="s">
         <v>23</v>
@@ -2019,24 +2159,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" ht="15.0" customHeight="1">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11"/>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="48.0" customHeight="1">
+      <c r="A60" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -2099,7 +2251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="15.0" customHeight="1">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -2112,6 +2264,86 @@
         <v>23</v>
       </c>
       <c r="H64" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2125,10 +2357,10 @@
     <mergeCell ref="I21:K21"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:H18 G20:H26 G28:H45 G47:H53 G55:H64">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:H18 G20:H26 G28:H45 G47:H58 G60:H69">
       <formula1>"Pass - ✅,Fail - ❌,Not Run - ⬜,Unknown"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E7:E18 E20:E26 E28:E45 E47:E53 E55:E64">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E7:E18 E20:E26 E28:E45 E47:E58 E60:E69">
       <formula1>"Positive - ✅,Neagtive- ❌"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Check List Собаседник.xlsx
+++ b/Check List Собаседник.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="120">
   <si>
     <t>Project</t>
   </si>
@@ -172,10 +172,6 @@
   </si>
   <si>
     <t>Футер</t>
-  </si>
-  <si>
-    <t>Перед работой с удаленным репозиторием выполнить команду -&gt;
-git pull origin master --rebase</t>
   </si>
   <si>
     <t>Главная страница</t>
@@ -1272,9 +1268,7 @@
       <c r="H21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="I21" s="12"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -1393,16 +1387,16 @@
     </row>
     <row r="28" ht="56.25" customHeight="1">
       <c r="A28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>21</v>
@@ -1419,22 +1413,22 @@
     </row>
     <row r="29" ht="68.25" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="D29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="E29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>23</v>
@@ -1445,22 +1439,22 @@
     </row>
     <row r="30" ht="69.75" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="E30" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>23</v>
@@ -1471,22 +1465,22 @@
     </row>
     <row r="31" ht="57.0" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="E31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>23</v>
@@ -1497,22 +1491,22 @@
     </row>
     <row r="32" ht="58.5" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>23</v>
@@ -1523,22 +1517,22 @@
     </row>
     <row r="33" ht="56.25" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="D33" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>23</v>
@@ -1549,22 +1543,22 @@
     </row>
     <row r="34" ht="56.25" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="E34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>23</v>
@@ -1575,22 +1569,22 @@
     </row>
     <row r="35" ht="56.25" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>23</v>
@@ -1601,22 +1595,22 @@
     </row>
     <row r="36" ht="56.25" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>23</v>
@@ -1627,22 +1621,22 @@
     </row>
     <row r="37" ht="56.25" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="E37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>23</v>
@@ -1653,22 +1647,22 @@
     </row>
     <row r="38" ht="56.25" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>23</v>
@@ -1679,22 +1673,22 @@
     </row>
     <row r="39" ht="56.25" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="E39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>23</v>
@@ -1705,22 +1699,22 @@
     </row>
     <row r="40" ht="56.25" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>23</v>
@@ -1731,16 +1725,16 @@
     </row>
     <row r="41" ht="56.25" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>21</v>
@@ -1757,22 +1751,22 @@
     </row>
     <row r="42" ht="56.25" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="E42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>23</v>
@@ -1783,22 +1777,22 @@
     </row>
     <row r="43" ht="56.25" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="D43" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="E43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>23</v>
@@ -1809,16 +1803,16 @@
     </row>
     <row r="44" ht="56.25" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>21</v>
@@ -1835,22 +1829,22 @@
     </row>
     <row r="45" ht="56.25" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="D45" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="E45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>23</v>
@@ -1887,22 +1881,22 @@
     </row>
     <row r="47" ht="63.75" customHeight="1">
       <c r="A47" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="D47" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="E47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>23</v>
@@ -1913,22 +1907,22 @@
     </row>
     <row r="48" ht="58.5" customHeight="1">
       <c r="A48" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D48" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="E48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>23</v>
@@ -1939,22 +1933,22 @@
     </row>
     <row r="49" ht="48.75" customHeight="1">
       <c r="A49" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="E49" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>23</v>
@@ -1965,22 +1959,22 @@
     </row>
     <row r="50" ht="61.5" customHeight="1">
       <c r="A50" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="E50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>110</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>23</v>
@@ -1991,22 +1985,22 @@
     </row>
     <row r="51" ht="86.25" customHeight="1">
       <c r="A51" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="E51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>23</v>
@@ -2017,22 +2011,22 @@
     </row>
     <row r="52" ht="68.25" customHeight="1">
       <c r="A52" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="E52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>23</v>
@@ -2043,60 +2037,66 @@
     </row>
     <row r="53" ht="67.5" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C53" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="E53" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E53" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="11" t="s">
+      <c r="G53" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="48.0" customHeight="1">
+      <c r="A55" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G53" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" ht="67.5" customHeight="1">
-      <c r="A54" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" ht="67.5" customHeight="1">
-      <c r="A55" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>102</v>
-      </c>
+      <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
+      <c r="E55" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="F55" s="11"/>
       <c r="G55" s="11" t="s">
         <v>23</v>
@@ -2105,16 +2105,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" ht="67.5" customHeight="1">
-      <c r="A56" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>102</v>
-      </c>
+    <row r="56">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
+      <c r="E56" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11" t="s">
         <v>23</v>
@@ -2123,16 +2121,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" ht="67.5" customHeight="1">
-      <c r="A57" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>102</v>
-      </c>
+    <row r="57">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
+      <c r="E57" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="F57" s="11"/>
       <c r="G57" s="11" t="s">
         <v>23</v>
@@ -2141,16 +2137,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" ht="67.5" customHeight="1">
-      <c r="A58" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>102</v>
-      </c>
+    <row r="58">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
+      <c r="E58" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11" t="s">
         <v>23</v>
@@ -2159,36 +2153,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" ht="48.0" customHeight="1">
-      <c r="A60" s="11" t="s">
-        <v>120</v>
-      </c>
+    <row r="59" ht="15.0" customHeight="1">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -2251,7 +2233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" ht="15.0" customHeight="1">
+    <row r="64">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -2264,86 +2246,6 @@
         <v>23</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2357,10 +2259,10 @@
     <mergeCell ref="I21:K21"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:H18 G20:H26 G28:H45 G47:H58 G60:H69">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:H18 G20:H26 G28:H45 G47:H53 G55:H64">
       <formula1>"Pass - ✅,Fail - ❌,Not Run - ⬜,Unknown"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E7:E18 E20:E26 E28:E45 E47:E58 E60:E69">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E7:E18 E20:E26 E28:E45 E47:E53 E55:E64">
       <formula1>"Positive - ✅,Neagtive- ❌"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Check List Собаседник.xlsx
+++ b/Check List Собаседник.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="183">
   <si>
     <t>Project</t>
   </si>
@@ -172,6 +172,195 @@
   </si>
   <si>
     <t>Футер</t>
+  </si>
+  <si>
+    <t>Форма: "Подпишитесь на рассылку лучших фотографий"</t>
+  </si>
+  <si>
+    <t>Работоспособность формы подписки</t>
+  </si>
+  <si>
+    <t>Проверка работоспособности формы, при корректно заполненном Email</t>
+  </si>
+  <si>
+    <t>Форма отправляется, появляется сообщение об успешной подписки на рассылку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валидация </t>
+  </si>
+  <si>
+    <t>Проверка валидации поля "Email address" на фронте (тест пустого значения)</t>
+  </si>
+  <si>
+    <t>Neagtive- ❌</t>
+  </si>
+  <si>
+    <t>Форма не должна отправляться, появляется сообщение "Заполните это поле"</t>
+  </si>
+  <si>
+    <t>"Телефон питомника"</t>
+  </si>
+  <si>
+    <t>Проверка, что при клике на ссылку открывается приложение для звонка</t>
+  </si>
+  <si>
+    <t>При клике открывается телефонное приложение с номером питомника</t>
+  </si>
+  <si>
+    <t>Форма: "Спросите нас о собачках"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Работоспособность формы </t>
+  </si>
+  <si>
+    <t>Проверка, работоспособнности форма при заполнении всех полей корректными значениями</t>
+  </si>
+  <si>
+    <t>Форма отправляется, появляется сообщение об успешном запросе</t>
+  </si>
+  <si>
+    <t>Проверка работоспособности формы, при заполнении только поля "E-mail"</t>
+  </si>
+  <si>
+    <t>Проверка валидаици на фронте полей (тест пустого значения)</t>
+  </si>
+  <si>
+    <t>Форма не отправляется, под полем "E-mail" появляется надпись "Pleasse type your e-mail address."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кнопка "Send" </t>
+  </si>
+  <si>
+    <t>Проверка отображения кнопки "Send"</t>
+  </si>
+  <si>
+    <t>Тест кнопки отображается в любом состоянии</t>
+  </si>
+  <si>
+    <t>Дропдаун "Аркадий"</t>
+  </si>
+  <si>
+    <t>Работоспособность</t>
+  </si>
+  <si>
+    <t>Проверка раскрытия дропдауна "Аркадий"</t>
+  </si>
+  <si>
+    <t>При раскрытии дропдауна отображается фото и описание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Работоспособность </t>
+  </si>
+  <si>
+    <t>Проверка закрытия дропдауна "Аркадий"</t>
+  </si>
+  <si>
+    <t>При повторном нажатии дропдаун закрывается</t>
+  </si>
+  <si>
+    <t>Дропдаун "Шлёпа"</t>
+  </si>
+  <si>
+    <t>Проверка расскрытия дропдауна "Шлёпа"</t>
+  </si>
+  <si>
+    <t>Проверка закрытия дропдауна "Шлёпа"</t>
+  </si>
+  <si>
+    <t>Тултип "+"</t>
+  </si>
+  <si>
+    <t>Проверка тултипа при наведении курсора на иконку "+"</t>
+  </si>
+  <si>
+    <t>При наведении на тултип появляется всплывающая подсказка</t>
+  </si>
+  <si>
+    <t>Ссылка на внешний рессурс "Twitter"</t>
+  </si>
+  <si>
+    <t>Проверка, что при клике на ссылку-иконку, осуществляется переход в "Twitter"</t>
+  </si>
+  <si>
+    <t>При клике осуществляется переход в Twitter (открывается внешний сайт)</t>
+  </si>
+  <si>
+    <t>Ссылка на внешний рессурс "Facebook"</t>
+  </si>
+  <si>
+    <t>Проверка, что при клике на ссылку-иконку, осуществляется переход в "Facebook"</t>
+  </si>
+  <si>
+    <t>При клике осуществляется переход в Facebook (открывается внешний сайт)</t>
+  </si>
+  <si>
+    <t>Ссылка на внешний рессурс "Instagram"</t>
+  </si>
+  <si>
+    <t>Проверка, что при клике на ссылку-иконку, осуществляется переход в "Instagram"</t>
+  </si>
+  <si>
+    <t>При клике осуществляется переход в Instagram (открывается внешний сайт)</t>
+  </si>
+  <si>
+    <t>Ссылка на внешний рессурс "Youtube"</t>
+  </si>
+  <si>
+    <t>Проверка, что при клике на ссылку-иконку, осуществляется переход в "Youtube"</t>
+  </si>
+  <si>
+    <t>При клике осуществляется переход в Youtube (открывается внешний сайт)</t>
+  </si>
+  <si>
+    <t>Логотипы внешних ресурсов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображение </t>
+  </si>
+  <si>
+    <t>Проверка корректного отображения и вертикального выравнивания логотипов внешних ресурсов в футере</t>
+  </si>
+  <si>
+    <t>Логотипы корректно отображаются, выровнены по вертикали</t>
+  </si>
+  <si>
+    <t>Ссылка "Список багов на сайте"</t>
+  </si>
+  <si>
+    <t>Переход на страницу "Список багов на сайте"</t>
+  </si>
+  <si>
+    <t>Ссылка на телеграм канал "qahacking"</t>
+  </si>
+  <si>
+    <t>Проверка перехода по ссылке в телеграм канал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открывается приложение телеграм с каналом "qahacking"  </t>
+  </si>
+  <si>
+    <t>Ссылка на телеграм канал "StartupTouch"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открывается приложение телеграм с каналом "StartupTouch" </t>
+  </si>
+  <si>
+    <t>Ссылка на курс Stepika</t>
+  </si>
+  <si>
+    <t>Проверка перехода по ссылке на Stepik курс</t>
+  </si>
+  <si>
+    <t>Открывается веб-сайт "Stepik":"Курс по тестированию API"</t>
+  </si>
+  <si>
+    <t>Отображение ссылки "Список багов на сайте"</t>
+  </si>
+  <si>
+    <t>Проверка корректного отображения и вертикального выравнивания ссылки "Список багов на сайте"</t>
+  </si>
+  <si>
+    <t>Ссылка корректно отображаются, выровнена по вертикали</t>
   </si>
   <si>
     <t>Главная страница</t>
@@ -720,7 +909,7 @@
     <col customWidth="1" min="1" max="1" width="16.25"/>
     <col customWidth="1" min="2" max="2" width="20.75"/>
     <col customWidth="1" min="3" max="3" width="20.5"/>
-    <col customWidth="1" min="4" max="4" width="21.38"/>
+    <col customWidth="1" min="4" max="4" width="28.13"/>
     <col customWidth="1" min="5" max="5" width="17.38"/>
     <col customWidth="1" min="6" max="6" width="26.5"/>
     <col customWidth="1" min="7" max="8" width="17.38"/>
@@ -1223,19 +1412,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" ht="29.25" customHeight="1">
+    <row r="20" ht="57.0" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="E20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="G20" s="11" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>23</v>
@@ -1253,17 +1450,27 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" ht="42.75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+    <row r="21" ht="49.5" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="E21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="G21" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>23</v>
@@ -1279,546 +1486,596 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+    <row r="22" ht="48.75" customHeight="1">
+      <c r="A22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="E22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="G22" s="11" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+    <row r="23" ht="72.75" customHeight="1">
+      <c r="A23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="E23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="G23" s="11" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+    <row r="24" ht="49.5" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="E24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="G24" s="11" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+    <row r="25" ht="51.75" customHeight="1">
+      <c r="A25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="E25" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="G25" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+    <row r="26" ht="46.5" customHeight="1">
+      <c r="A26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="E26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="G26" s="11" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" ht="56.25" customHeight="1">
+    <row r="27" ht="46.5" customHeight="1">
+      <c r="A27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" ht="46.5" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" ht="68.25" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" ht="46.5" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" ht="69.75" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" ht="46.5" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" ht="57.0" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" ht="46.5" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" ht="58.5" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" ht="46.5" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" ht="56.25" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" ht="46.5" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" ht="56.25" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" ht="46.5" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" ht="56.25" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" ht="46.5" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" ht="56.25" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" ht="66.0" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" ht="56.25" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" ht="46.5" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" ht="56.25" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" ht="46.5" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" ht="56.25" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" ht="46.5" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" ht="56.25" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" ht="46.5" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" ht="56.25" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" ht="46.5" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" ht="56.25" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" ht="75.75" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" ht="56.25" customHeight="1">
-      <c r="A43" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="56.25" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>23</v>
@@ -1827,425 +2084,841 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" ht="56.25" customHeight="1">
+    <row r="45" ht="68.25" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H45" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" ht="69.75" customHeight="1">
+      <c r="A46" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" ht="63.75" customHeight="1">
+    <row r="47" ht="57.0" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" ht="58.5" customHeight="1">
       <c r="A48" s="11" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H48" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" ht="56.25" customHeight="1">
+      <c r="A49" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" ht="56.25" customHeight="1">
+      <c r="A50" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" ht="56.25" customHeight="1">
+      <c r="A51" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" ht="56.25" customHeight="1">
+      <c r="A52" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" ht="56.25" customHeight="1">
+      <c r="A53" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" ht="56.25" customHeight="1">
+      <c r="A54" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" ht="56.25" customHeight="1">
+      <c r="A55" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" ht="56.25" customHeight="1">
+      <c r="A56" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" ht="48.75" customHeight="1">
-      <c r="A49" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="11" t="s">
+    <row r="57" ht="56.25" customHeight="1">
+      <c r="A57" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" ht="56.25" customHeight="1">
+      <c r="A58" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" ht="56.25" customHeight="1">
+      <c r="A59" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" ht="61.5" customHeight="1">
-      <c r="A50" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="11" t="s">
+    <row r="60" ht="56.25" customHeight="1">
+      <c r="A60" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" ht="56.25" customHeight="1">
+      <c r="A61" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" ht="86.25" customHeight="1">
-      <c r="A51" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="11" t="s">
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="63.75" customHeight="1">
+      <c r="A63" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" ht="68.25" customHeight="1">
-      <c r="A52" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="11" t="s">
+    <row r="64" ht="58.5" customHeight="1">
+      <c r="A64" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" ht="67.5" customHeight="1">
-      <c r="A53" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" s="11" t="s">
+    <row r="65" ht="48.75" customHeight="1">
+      <c r="A65" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="9" t="s">
+    <row r="66" ht="61.5" customHeight="1">
+      <c r="A66" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" ht="86.25" customHeight="1">
+      <c r="A67" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" ht="68.25" customHeight="1">
+      <c r="A68" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" ht="67.5" customHeight="1">
+      <c r="A69" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B70" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D70" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E70" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F70" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G70" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H70" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="55" ht="48.0" customHeight="1">
-      <c r="A55" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" ht="15.0" customHeight="1">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" s="11" t="s">
+    <row r="71" ht="48.0" customHeight="1">
+      <c r="A71" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" ht="15.0" customHeight="1">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2259,10 +2932,10 @@
     <mergeCell ref="I21:K21"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:H18 G20:H26 G28:H45 G47:H53 G55:H64">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7:H18 G20:H42 G44:H61 G63:H69 G71:H80">
       <formula1>"Pass - ✅,Fail - ❌,Not Run - ⬜,Unknown"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E7:E18 E20:E26 E28:E45 E47:E53 E55:E64">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E7:E18 E20:E42 E44:E61 E63:E69 E71:E80">
       <formula1>"Positive - ✅,Neagtive- ❌"</formula1>
     </dataValidation>
   </dataValidations>
